--- a/regionseng/3/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/3/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,13 +88,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve"> 2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
@@ -321,12 +321,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -344,6 +338,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -655,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -669,14 +669,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.45" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:16" ht="15">
       <c r="A2" s="5"/>
@@ -688,18 +688,18 @@
       </c>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16">
       <c r="A4" s="7"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -851,20 +851,20 @@
       <c r="A12" s="16">
         <v>2016</v>
       </c>
-      <c r="B12" s="23">
-        <v>299.69650000000001</v>
-      </c>
-      <c r="C12" s="23">
-        <v>153.78899999999999</v>
-      </c>
-      <c r="D12" s="23">
-        <v>185.72090000000003</v>
-      </c>
-      <c r="E12" s="23">
-        <v>-85.394799999999975</v>
-      </c>
-      <c r="F12" s="24">
-        <v>553.8116</v>
+      <c r="B12" s="21">
+        <v>299.69649999999996</v>
+      </c>
+      <c r="C12" s="21">
+        <v>153.78910000000002</v>
+      </c>
+      <c r="D12" s="21">
+        <v>185.72099999999995</v>
+      </c>
+      <c r="E12" s="21">
+        <v>-85.394800000000004</v>
+      </c>
+      <c r="F12" s="22">
+        <v>553.81179999999995</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="13.15" customHeight="1">
@@ -872,19 +872,19 @@
         <v>2017</v>
       </c>
       <c r="B13" s="1">
-        <v>23.615200000000058</v>
+        <v>23.615000000000045</v>
       </c>
       <c r="C13" s="1">
-        <v>200.2825</v>
+        <v>200.28250000000008</v>
       </c>
       <c r="D13" s="1">
-        <v>567.76869999999985</v>
+        <v>567.76869999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>292.83330000000012</v>
+        <v>292.83330000000007</v>
       </c>
       <c r="F13" s="17">
-        <v>1084.4996999999998</v>
+        <v>1084.4995000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="13.15" customHeight="1">
@@ -892,19 +892,19 @@
         <v>2018</v>
       </c>
       <c r="B14" s="1">
-        <v>104.89840000000001</v>
+        <v>104.89830000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>-115.02739999999996</v>
+        <v>-115.02729999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>199.78130000000002</v>
+        <v>199.78139999999996</v>
       </c>
       <c r="E14" s="1">
-        <v>111.98829999999991</v>
+        <v>111.98830000000012</v>
       </c>
       <c r="F14" s="17">
-        <v>301.64060000000001</v>
+        <v>301.64070000000015</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="13.15" customHeight="1">
@@ -912,19 +912,19 @@
         <v>2019</v>
       </c>
       <c r="B15" s="1">
-        <v>72.976099999999988</v>
+        <v>72.97620000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>225.37650000000005</v>
+        <v>225.37639999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>888.93570000000022</v>
+        <v>888.93579999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>462.12770000000006</v>
+        <v>462.12799999999993</v>
       </c>
       <c r="F15" s="17">
-        <v>1649.4160000000002</v>
+        <v>1649.4163999999998</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="13.15" customHeight="1">
@@ -932,19 +932,19 @@
         <v>2020</v>
       </c>
       <c r="B16" s="1">
-        <v>544.50700000000006</v>
+        <v>544.50690000000009</v>
       </c>
       <c r="C16" s="1">
-        <v>-220.19000000000005</v>
+        <v>-220.18989999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-67.236500000000021</v>
+        <v>-67.236500000000035</v>
       </c>
       <c r="E16" s="1">
-        <v>-188.22850000000003</v>
+        <v>-188.22830000000002</v>
       </c>
       <c r="F16" s="17">
-        <v>68.851999999999947</v>
+        <v>68.852200000000067</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -952,19 +952,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="1">
-        <v>73.490299999999976</v>
+        <v>73.490499999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>156.79880000000006</v>
+        <v>156.7988</v>
       </c>
       <c r="D17" s="1">
-        <v>830.28749999999991</v>
+        <v>830.28750000000014</v>
       </c>
       <c r="E17" s="1">
-        <v>-160.1748</v>
+        <v>-160.17480000000006</v>
       </c>
       <c r="F17" s="17">
-        <v>900.40179999999987</v>
+        <v>900.40200000000004</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -978,19 +978,23 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="16" t="s">
-        <v>14</v>
+      <c r="A18" s="16">
+        <v>2022</v>
       </c>
       <c r="B18" s="1">
-        <v>395.59020000000004</v>
+        <v>122.99619999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>-3.069399999999987</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+        <v>249.74539999999996</v>
+      </c>
+      <c r="D18" s="1">
+        <v>838.49829999999997</v>
+      </c>
+      <c r="E18" s="1">
+        <v>823.61359999999968</v>
+      </c>
       <c r="F18" s="17">
-        <v>392.52080000000007</v>
+        <v>2034.8534999999997</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1004,14 +1008,24 @@
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-569.93829999999991</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-49.35389999999996</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-165.46569999999997</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3118.9066000000003</v>
+      </c>
+      <c r="F19" s="17">
+        <v>2334.1487000000006</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -1024,66 +1038,70 @@
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="A20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>708.05850000000021</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="17">
+        <v>708.05850000000021</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1103,7 +1121,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1123,7 +1141,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1142,7 +1160,9 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="9"/>
+      <c r="A26" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1159,31 +1179,69 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" ht="39.6" customHeight="1">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A29" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/3/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/3/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -330,6 +330,12 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,12 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -664,19 +664,20 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="4" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="2" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.45" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:16" ht="15">
       <c r="A2" s="5"/>
@@ -690,16 +691,16 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="7"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -1044,11 +1045,13 @@
       <c r="B20" s="1">
         <v>708.05850000000021</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>977.30289999999991</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="17">
-        <v>708.05850000000021</v>
+        <v>1685.3614000000002</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1062,12 +1065,12 @@
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1218,14 +1221,14 @@
       <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
